--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -582,34 +582,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.8260246319213993</v>
+      </c>
+      <c r="C2">
         <v>-1.981077477814098</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.4414436339245075</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.7110977538981412</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.159566049999028</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.3854928109118805</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.2776770955153309</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.3740767161796326</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1293341692733759</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.3878561111968251</v>
-      </c>
-      <c r="K2">
-        <v>-1.336126473781489</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,34 +617,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.1405287498260583</v>
+      </c>
+      <c r="C3">
         <v>-0.4101828697996921</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1413488340994211</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.08457792681343129</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0232377885831183</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0731618320811834</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.4302490533718251</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.6887709952952742</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.03521158968304</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.3815723733203383</v>
-      </c>
-      <c r="K3">
-        <v>-0.0180284384119071</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,34 +652,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.7815531178611421</v>
+      </c>
+      <c r="C4">
         <v>0.5556263569482897</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.6634420723448393</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5670424516805376</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.070453337133546</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.328975279056995</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.3950073059213186</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.2586319104413827</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.6221758453498138</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.2785999995298156</v>
-      </c>
-      <c r="K4">
-        <v>0.7917755574238372</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,34 +687,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.59085446968239</v>
+      </c>
+      <c r="C5">
         <v>0.4944548490180882</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.9978657344710967</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.256387676394546</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.467594908583768</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1860443077789333</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.5495882426873645</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.351187602192265</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.7191879547613879</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.142128040744926</v>
-      </c>
-      <c r="K5">
-        <v>-0.0634779433480902</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,34 +722,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.9421746901075616</v>
+      </c>
+      <c r="C6">
         <v>1.200696632031011</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.5232859529473031</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.1303532634153982</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.4938971983238294</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.4068786465558001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.6634969103978527</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.08643699638139091</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.1191689877116253</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.8599759940094719</v>
-      </c>
-      <c r="K6">
-        <v>0.12362965067211</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -757,34 +757,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.8773451131212686</v>
+      </c>
+      <c r="C7">
         <v>-0.2237058967585673</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.1398380381498639</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.7609378067297656</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3094377502238873</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.2676221637925746</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.4732281478855908</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.5059168338355065</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.2304295095018555</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.2483993241560489</v>
-      </c>
-      <c r="K7">
-        <v>-0.224994458615712</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -792,34 +792,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.04951982135029001</v>
+      </c>
+      <c r="C8">
         <v>-0.8512560235293395</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.2191195334243133</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.3579403805921485</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.5635463646851647</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4155986170359325</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.3207477263014294</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.3387175409556228</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.315312675415286</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.6804871111820268</v>
-      </c>
-      <c r="K8">
-        <v>-0.0246675940110746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,34 +827,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.2874422675287736</v>
+      </c>
+      <c r="C9">
         <v>-0.2896176464876882</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.4952236305807045</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.4839213511403928</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.2524249921969692</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.2703948068511625</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.2469899413108257</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.6121643770775664</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.04365514009338567</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.08721574084803801</v>
-      </c>
-      <c r="K9">
-        <v>-0.1967335397721599</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -862,34 +862,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5938852086106097</v>
+      </c>
+      <c r="C10">
         <v>0.3852597731104875</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3510865702268745</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.3690563848810678</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.345651519340731</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.7108259551074718</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.0550064379365196</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.1858773188779433</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.2953951178020652</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.125172904869618</v>
-      </c>
-      <c r="K10">
-        <v>-0.5446471157009707</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,34 +897,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.2740769919852016</v>
+      </c>
+      <c r="C11">
         <v>-0.292046806639395</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2686419410990581</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.6338163768657989</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.02200314030515318</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.1088677406362705</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.2183855395603924</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.048163326627946</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.4676375374592979</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5510236388890779</v>
-      </c>
-      <c r="K11">
-        <v>-0.7689335164288366</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,34 +932,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.09712588908289738</v>
+      </c>
+      <c r="C12">
         <v>-0.4623003248496382</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.193519192321314</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.0626483113798903</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.04686948754423159</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.8766472746117848</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.2961214854431372</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.3795075868729171</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.5974174644126757</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.9663603392234945</v>
-      </c>
-      <c r="K12">
-        <v>-0.3696233668585691</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -967,34 +967,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.1560540901775642</v>
+      </c>
+      <c r="C13">
         <v>0.02518320923614054</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.08433458968798135</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.9141123767555346</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.3335865875868869</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.4169726890166669</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.6348825665564255</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.9288952370797448</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.4070884690023188</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.033525947527809</v>
-      </c>
-      <c r="K13">
-        <v>-0.06691816673301326</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,34 +1002,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.106237102096024</v>
+      </c>
+      <c r="C14">
         <v>-0.9360148891635773</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.3554890999949296</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.4388752014247095</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.6567850789644682</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.9069927246717022</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.4289909814103615</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.011623435119767</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.0888206791410559</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.2990950773107258</v>
-      </c>
-      <c r="K14">
-        <v>0.2994491260730046</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1037,34 +1037,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.2673832081489602</v>
+      </c>
+      <c r="C15">
         <v>-0.3507693095787401</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.5686791871184989</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.9950986165176716</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.3408850895643921</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.099729326965736</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.0007147872950865053</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.2109891854647564</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.387555017918974</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.06188637714375961</v>
-      </c>
-      <c r="K15">
-        <v>0.7790661785193633</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1072,34 +1072,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.4749660705519546</v>
+      </c>
+      <c r="C16">
         <v>1.088811733084216</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.2471719729978479</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.19344244353228</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.09299832927145768</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.1172760688982122</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.4812681344855182</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.1555994937103038</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.8727792950859075</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.568651570723608</v>
-      </c>
-      <c r="K16">
-        <v>9.412898365648186</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1107,34 +1107,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>1.097015279354651</v>
+      </c>
+      <c r="C17">
         <v>-0.2389684267274125</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.201645989802716</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1012018755418931</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.1090725226277768</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.4894716807559536</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.1638030399807392</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.8809828413563429</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.576855116994044</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9.421101911918621</v>
-      </c>
-      <c r="K17">
-        <v>-8.12955217118269</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1142,34 +1142,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.2415579873788807</v>
+      </c>
+      <c r="C18">
         <v>1.199056429151248</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.09861231489042488</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.111662083279245</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.4868821201044854</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.161213479329271</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.8783932807048747</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.574265556342576</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.418512351267154</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-8.132141731834157</v>
-      </c>
-      <c r="K18">
-        <v>-0.4227451321780102</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1177,34 +1177,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>1.205589761734299</v>
+      </c>
+      <c r="C19">
         <v>0.1051456474734768</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.1051287506961931</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4934154526875373</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.1677468119123229</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.8849266132879265</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.580798888925627</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9.425045683850206</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-8.125608399251105</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.4162117995949584</v>
-      </c>
-      <c r="K19">
-        <v>1.166700861291953</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1212,34 +1212,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.006071047505593896</v>
+      </c>
+      <c r="C20">
         <v>-0.2163454456752638</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3821987577084666</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.05653011693325222</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.7737099183088558</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.469582193946557</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9.313828988871135</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.236825094230175</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.5274284945740291</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.055484166312883</v>
-      </c>
-      <c r="K20">
-        <v>-1.910802826036373</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1247,34 +1247,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.2580915896621678</v>
+      </c>
+      <c r="C21">
         <v>0.3404526137215625</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.01478397294634815</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.7319637743219518</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.427836049959653</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9.272082844884231</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.278571238217079</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.5691746385609331</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.013738022325978</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1.952548970023277</v>
-      </c>
-      <c r="K21">
-        <v>0.3114821846411857</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1282,34 +1282,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.3657676764542774</v>
+      </c>
+      <c r="C22">
         <v>0.04009903567906303</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.7572788370546667</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.453151112692368</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>9.297397907616945</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.253256175484365</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.5438595758282182</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.039053085058693</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.927233907290562</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.3367972473739005</v>
-      </c>
-      <c r="K22">
-        <v>-0.1143569075528381</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1317,34 +1317,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.04413770072197692</v>
+      </c>
+      <c r="C23">
         <v>0.7613175020975806</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.457189777735282</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>9.30143657265986</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.249217510441451</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.5398209107853043</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.043091750101607</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1.923195242247649</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.3408359124168144</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.1103182425099242</v>
-      </c>
-      <c r="K23">
-        <v>-0.2506823060238983</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1352,34 +1352,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.6424403654065582</v>
+      </c>
+      <c r="C24">
         <v>2.338312641044259</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9.182559435968837</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.368094647132473</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.6586980474763267</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.9242146134105849</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-2.042072378938671</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.221958775725792</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.2291953792009466</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.3695594427149207</v>
-      </c>
-      <c r="K24">
-        <v>0.1566795681472968</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1387,34 +1387,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>2.297389002388887</v>
+      </c>
+      <c r="C25">
         <v>9.141635797313464</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-8.409018285787846</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.6996216861316987</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.8832909747552129</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-2.082996017594043</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.18103513707042</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.2701190178563186</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.4104830813702928</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.1157559294919248</v>
-      </c>
-      <c r="K25">
-        <v>-0.02607301724734923</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1422,34 +1422,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>8.826710628892494</v>
+      </c>
+      <c r="C26">
         <v>-8.723943454208817</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-1.01454685455267</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.5683658063342414</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-2.397921186015015</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-0.1338900313505515</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.5850441862772902</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.7254082497912643</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.1991692389290468</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-0.3409981856683208</v>
-      </c>
-      <c r="K26">
-        <v>0.3019764357337431</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,34 +1457,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-9.780318414391347</v>
+      </c>
+      <c r="C27">
         <v>-2.0709218147352</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.4880091538482882</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-3.454296146197544</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-1.190264991533081</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-1.64141914645982</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-1.781783209973794</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-1.255544199111576</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1.39737314585085</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-0.7543985244487865</v>
-      </c>
-      <c r="K27">
-        <v>-0.6299858181192041</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1492,34 +1492,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-1.200275438764269</v>
+      </c>
+      <c r="C28">
         <v>0.3826372221226423</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-2.583649770226613</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-0.3196186155621505</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.7707727704888893</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.9111368340028634</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.3848978231406458</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.5267267698799198</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.1162478515221441</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.2406605578517265</v>
-      </c>
-      <c r="K28">
-        <v>-0.1569696481858908</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1527,34 +1527,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>0.3719860057927588</v>
+      </c>
+      <c r="C29">
         <v>-2.594300986556497</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-0.3302698318920341</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-0.7814239868187727</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.9217880503327469</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.3955490394705293</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.5373779862098034</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.1055966351922606</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.230009341521843</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.1676208645157742</v>
-      </c>
-      <c r="K29">
-        <v>-0.24378957821662</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1562,34 +1562,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-2.702915518772638</v>
+      </c>
+      <c r="C30">
         <v>-0.4388843641081749</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.8900385190349136</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1.030402582548888</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-0.5041635716866701</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-0.6459925184259441</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.003017897023880223</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.1213948093057022</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.2762353967319151</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.3524041104327608</v>
-      </c>
-      <c r="K30">
-        <v>-0.07608205230983922</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1597,34 +1597,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>-0.2307826431404359</v>
+      </c>
+      <c r="C31">
         <v>-0.6819367980671746</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.8223008615811487</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.2960618507189311</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-0.4378907974582051</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.2050838239438588</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.3294965302734412</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.06813367576417605</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.1443023894650218</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.1320196686578998</v>
-      </c>
-      <c r="K31">
-        <v>-0.0392001536538242</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1632,34 +1632,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>-0.5654386276933741</v>
+      </c>
+      <c r="C32">
         <v>-0.7058026912073482</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.1795636803451306</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.3213926270844047</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.3215819943176592</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.4459947006472416</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.04836449460962439</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.02780421909122137</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.2485178390317002</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.07729801671997623</v>
-      </c>
-      <c r="K32">
-        <v>0.2304454222287174</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1667,34 +1667,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-0.6603092772102132</v>
+      </c>
+      <c r="C33">
         <v>-0.1340702663479956</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.2758992130872696</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3670754083147943</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.4914881146443768</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.09385790860675949</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.01768919490591373</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.2940112530288354</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.1227914307171113</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.2759388362258526</v>
-      </c>
-      <c r="K33">
-        <v>-0.001489938197266189</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1702,34 +1702,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>-0.15162438770796</v>
+      </c>
+      <c r="C34">
         <v>-0.293453334447234</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.3495212869548299</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.4739339932844123</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.07630378724679503</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.0001350735459492769</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.2764571316688709</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1052373093571469</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.2583847148658881</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.01904405955723064</v>
-      </c>
-      <c r="K34">
-        <v>-0.182031752916177</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1737,34 +1737,34 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-0.2053460154962278</v>
+      </c>
+      <c r="C35">
         <v>0.4376286059058361</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.5620413122354185</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.1644111061978012</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.08824239249695551</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.3645644506198771</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.1933446283081531</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.3464920338168943</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.06906325939377558</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-0.09392443396517081</v>
-      </c>
-      <c r="K35">
-        <v>-0.2180070093596886</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1772,34 +1772,34 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0.6162032393936197</v>
+      </c>
+      <c r="C36">
         <v>0.7406159457232021</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3429857396855849</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2668170259847391</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.5431390841076607</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.3719192617959367</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.525066667304678</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.2476378928815592</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.0846501995226128</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-0.03943237587190501</v>
-      </c>
-      <c r="K36">
-        <v>0.4767206611340558</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1807,34 +1807,34 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>1.652643173475852</v>
+      </c>
+      <c r="C37">
         <v>1.255012967438235</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.178844253737389</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.455166311860311</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.283946489548587</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.437093895057328</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.159665120634209</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.9966774272752628</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.8725948518807449</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1.388747888886706</v>
-      </c>
-      <c r="K37">
-        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,30 +1842,33 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0.3110387314724781</v>
+      </c>
+      <c r="C38">
         <v>0.2348700177716323</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.5111920758945538</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.3399722535828299</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.4931196590915711</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.2156908846684524</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.05270319130950599</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-0.07137938408501182</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.444773652920949</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -1874,27 +1877,30 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0.2388379152847414</v>
+      </c>
+      <c r="C39">
         <v>0.5151599734076631</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.343940151095939</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.4970875566046802</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.2196587821815615</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.0566710888226151</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>-0.06741148657190271</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.4487415504340581</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -1903,24 +1909,27 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0.6508000635779043</v>
+      </c>
+      <c r="C40">
         <v>0.4795802412661804</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.6327276467749217</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.3552988723518029</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.1923111789928565</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.06822860359833866</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.5843816406042994</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -1929,21 +1938,24 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.2387740594105157</v>
+      </c>
+      <c r="C41">
         <v>0.3919214649192569</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.1144926904961382</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>-0.04849500286280822</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-0.172577578257326</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.3435754587486348</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -1952,18 +1964,21 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0.3465902496671606</v>
+      </c>
+      <c r="C42">
         <v>0.0691614752440418</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>-0.09382621811490459</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-0.2179087935094224</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.2982442434965384</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -1972,15 +1987,18 @@
         <v>51</v>
       </c>
       <c r="B43">
+        <v>0.00230005330798793</v>
+      </c>
+      <c r="C43">
         <v>-0.1606876400509585</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-0.2847702154454763</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.2313828215604846</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -1989,12 +2007,15 @@
         <v>52</v>
       </c>
       <c r="B44">
+        <v>-0.1902738424076751</v>
+      </c>
+      <c r="C44">
         <v>-0.3143564178021929</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.201796619203768</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -2003,9 +2024,12 @@
         <v>53</v>
       </c>
       <c r="B45">
+        <v>-0.3325070745318338</v>
+      </c>
+      <c r="C45">
         <v>0.1836459624741271</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -2014,12 +2038,18 @@
         <v>54</v>
       </c>
       <c r="B46">
+        <v>0.1656141382254278</v>
+      </c>
+      <c r="C46">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>
